--- a/Data/Indole_-_cytoprotekcja_.xlsx
+++ b/Data/Indole_-_cytoprotekcja_.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleks\Documents\GitHub\Indole_new_structures\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E9468C-6085-4312-B006-66219487A5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6054F90-CA61-4560-AEEC-8DB674C4B3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13995" yWindow="525" windowWidth="21600" windowHeight="11295" xr2:uid="{41B62FB5-44E3-4BB7-A4F3-333FD7D10122}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{41B62FB5-44E3-4BB7-A4F3-333FD7D10122}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>SMILES</t>
   </si>
   <si>
-    <t>Aktywność cytoprotekcyjna [%]</t>
-  </si>
-  <si>
     <t>C12=CC=CC=C1NC=C2COCC3=CN(CCCN4N=NC(COCC5=CNC6=C5C=CC=C6)=C4)N=N3</t>
   </si>
   <si>
@@ -175,6 +172,9 @@
   </si>
   <si>
     <t>[N-]=[N+]=NCC1=CC(CN=[N+]=[N-])=CC(CN2N=NC(COCC3=CNC4=C3C=CC=C4)=C2)=C1</t>
+  </si>
+  <si>
+    <t>Cytoprotective activity [%]</t>
   </si>
 </sst>
 </file>
@@ -245,7 +245,7 @@
   <autoFilter ref="A1:B45" xr:uid="{CABD546E-81FB-4584-86C4-B2717DAC8852}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{DAC17A88-974B-42DB-B938-80BD60BA82EF}" name="SMILES"/>
-    <tableColumn id="2" xr3:uid="{D30267BE-821B-4B79-84D1-6C7D20C6D06C}" name="Aktywność cytoprotekcyjna [%]"/>
+    <tableColumn id="2" xr3:uid="{D30267BE-821B-4B79-84D1-6C7D20C6D06C}" name="Cytoprotective activity [%]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -551,7 +551,7 @@
   <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,12 +565,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>81</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>84</v>
@@ -586,7 +586,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>70</v>
@@ -594,7 +594,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>69</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>68.5</v>
@@ -610,7 +610,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>60</v>
@@ -618,7 +618,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>60</v>
@@ -626,7 +626,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>91</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>82</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>83</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>48</v>
@@ -674,7 +674,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -682,7 +682,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16">
         <v>28</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17">
         <v>55</v>
@@ -698,7 +698,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18">
         <v>81</v>
@@ -706,7 +706,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19">
         <v>77</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>76</v>
@@ -722,7 +722,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21">
         <v>85</v>
@@ -730,7 +730,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22">
         <v>86</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23">
         <v>72</v>
@@ -746,7 +746,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24">
         <v>17</v>
@@ -754,7 +754,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25">
         <v>62</v>
@@ -762,7 +762,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26">
         <v>80</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27">
         <v>28</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28">
         <v>92</v>
@@ -786,7 +786,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29">
         <v>61</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30">
         <v>64</v>
@@ -802,7 +802,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31">
         <v>76</v>
@@ -810,7 +810,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32">
         <v>84</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33">
         <v>87</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34">
         <v>28</v>
@@ -834,7 +834,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35">
         <v>46</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36">
         <v>24</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -858,7 +858,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38">
         <v>67</v>
@@ -866,7 +866,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39">
         <v>94</v>
@@ -874,7 +874,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40">
         <v>93</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41">
         <v>90</v>
@@ -890,7 +890,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42">
         <v>87</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43">
         <v>86</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44">
         <v>82</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45">
         <v>73</v>
@@ -943,7 +943,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1">
         <v>73</v>
@@ -954,7 +954,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>64</v>
